--- a/10v15/13/MQC-Round-Robin/HARVARD_TUFTS.xlsx
+++ b/10v15/13/MQC-Round-Robin/HARVARD_TUFTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raghu\quidditch\10v15\13\MQC-Round-Robin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5477ACC4-B4CA-4D1C-8392-8655F89A577B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92E7F9A-1B5A-4A3D-A7EE-B1405235A997}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -165,12 +165,6 @@
     <t>HENRY BAER-BENSON</t>
   </si>
   <si>
-    <t>BEATER SMILEY</t>
-  </si>
-  <si>
-    <t>CHASER SMILEY</t>
-  </si>
-  <si>
     <t>R28</t>
   </si>
   <si>
@@ -181,6 +175,12 @@
   </si>
   <si>
     <t>RCA</t>
+  </si>
+  <si>
+    <t>JORDAN SMILEY</t>
+  </si>
+  <si>
+    <t>BROOKE SMILEY</t>
   </si>
 </sst>
 </file>
@@ -500,7 +500,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -508,20 +516,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -743,7 +743,7 @@
   </sheetPr>
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" workbookViewId="0">
+    <sheetView zoomScale="59" workbookViewId="0">
       <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
@@ -773,21 +773,21 @@
     <row r="1" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
       <c r="R1" s="2"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -800,142 +800,142 @@
     </row>
     <row r="2" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="33" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="33">
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="29">
         <f>COUNTIFS(A:A,"G*") + COUNTIFS(G:G,"G*")+COUNTIFS(M:M,"G*")+COUNTIFS(S:S,"G*")</f>
         <v>7</v>
       </c>
-      <c r="M2" s="26"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="34" t="str">
+      <c r="M2" s="30"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="35" t="str">
         <f>IF(COUNTIF($A$7:$R$32,"RCA"),"*","")&amp;IF(COUNTIF($A$7:$R$32,"OCA"),"^","")&amp;IF(COUNTIF($A$7:$R$32,"2CA"),"!","")</f>
         <v>*</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="25" t="str">
+      <c r="P2" s="30"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="36" t="str">
         <f>CONCATENATE(LEN(O2)*30+L2*10,O2)</f>
         <v>100*</v>
       </c>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="27"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="31"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="30"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="34"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="33" t="s">
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="26"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="33">
+      <c r="J4" s="30"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="29">
         <f>COUNTIFS(D:D,"G*")+COUNTIFS(J:J,"G*")+COUNTIFS(P:P,"G*")+COUNTIFS(V:V,"G*")</f>
         <v>3</v>
       </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="34" t="str">
+      <c r="M4" s="30"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="35" t="str">
         <f>IF(COUNTIF($A$7:$R$32,"RCB"),"*","")&amp;IF(COUNTIF($A$7:$R$32,"OCB"),"^","")&amp;IF(COUNTIF($A$7:$R$32,"2CB"),"!","")</f>
         <v/>
       </c>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="25" t="str">
+      <c r="P4" s="30"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="36" t="str">
         <f>CONCATENATE(LEN(O4)*30+L4*10,O4)</f>
         <v>30</v>
       </c>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="27"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="31"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="30"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="34"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>0</v>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K19" s="17" t="s">
         <v>1</v>
@@ -1603,7 +1603,7 @@
         <v>14</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G20" s="19" t="s">
         <v>8</v>
@@ -1633,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="P20" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="20">
         <v>0</v>
@@ -29294,6 +29294,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="R2:W3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:H5"/>
+    <mergeCell ref="I4:K5"/>
+    <mergeCell ref="L4:N5"/>
+    <mergeCell ref="O4:Q5"/>
+    <mergeCell ref="R4:W5"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
@@ -29303,13 +29310,6 @@
     <mergeCell ref="I2:K3"/>
     <mergeCell ref="L2:N3"/>
     <mergeCell ref="O2:Q3"/>
-    <mergeCell ref="R2:W3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:H5"/>
-    <mergeCell ref="I4:K5"/>
-    <mergeCell ref="L4:N5"/>
-    <mergeCell ref="O4:Q5"/>
-    <mergeCell ref="R4:W5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -29329,8 +29329,8 @@
   </sheetPr>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:C31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29478,7 +29478,7 @@
       </c>
       <c r="B17" s="22"/>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29492,7 +29492,7 @@
       </c>
       <c r="B19" s="22"/>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/10v15/13/MQC-Round-Robin/HARVARD_TUFTS.xlsx
+++ b/10v15/13/MQC-Round-Robin/HARVARD_TUFTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raghu\quidditch\10v15\13\MQC-Round-Robin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92E7F9A-1B5A-4A3D-A7EE-B1405235A997}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA91F31-68E7-41B8-A5AA-57423A727AAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="87">
   <si>
     <t>A</t>
   </si>
@@ -181,6 +181,120 @@
   </si>
   <si>
     <t>BROOKE SMILEY</t>
+  </si>
+  <si>
+    <t>0013</t>
+  </si>
+  <si>
+    <t>0026</t>
+  </si>
+  <si>
+    <t>0058</t>
+  </si>
+  <si>
+    <t>0108</t>
+  </si>
+  <si>
+    <t>0137</t>
+  </si>
+  <si>
+    <t>0227</t>
+  </si>
+  <si>
+    <t>0257</t>
+  </si>
+  <si>
+    <t>0305</t>
+  </si>
+  <si>
+    <t>0349</t>
+  </si>
+  <si>
+    <t>0441</t>
+  </si>
+  <si>
+    <t>0517</t>
+  </si>
+  <si>
+    <t>0620</t>
+  </si>
+  <si>
+    <t>0650</t>
+  </si>
+  <si>
+    <t>0659</t>
+  </si>
+  <si>
+    <t>0814</t>
+  </si>
+  <si>
+    <t>0835</t>
+  </si>
+  <si>
+    <t>0908</t>
+  </si>
+  <si>
+    <t>0950</t>
+  </si>
+  <si>
+    <t>0958</t>
+  </si>
+  <si>
+    <t>1050</t>
+  </si>
+  <si>
+    <t>1118</t>
+  </si>
+  <si>
+    <t>1214</t>
+  </si>
+  <si>
+    <t>1224</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>1253</t>
+  </si>
+  <si>
+    <t>1321</t>
+  </si>
+  <si>
+    <t>1330</t>
+  </si>
+  <si>
+    <t>1402</t>
+  </si>
+  <si>
+    <t>1420</t>
+  </si>
+  <si>
+    <t>1450</t>
+  </si>
+  <si>
+    <t>1508</t>
+  </si>
+  <si>
+    <t>1624</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1739</t>
+  </si>
+  <si>
+    <t>1715</t>
+  </si>
+  <si>
+    <t>1847</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2015</t>
   </si>
 </sst>
 </file>
@@ -743,8 +857,8 @@
   </sheetPr>
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView zoomScale="59" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" zoomScale="59" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -978,37 +1092,51 @@
       <c r="E7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="J7" s="6"/>
       <c r="K7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="8"/>
+      <c r="L7" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="5"/>
+      <c r="O7" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R7" s="8"/>
+      <c r="R7" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U7" s="5"/>
+      <c r="U7" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="V7" s="6"/>
       <c r="W7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X7" s="8"/>
+      <c r="X7" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
@@ -1111,44 +1239,60 @@
       <c r="B10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="J10" s="6"/>
       <c r="K10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L10" s="8"/>
+      <c r="L10" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="M10" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O10" s="5"/>
+      <c r="O10" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R10" s="8"/>
+      <c r="R10" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U10" s="5"/>
+      <c r="U10" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="V10" s="6"/>
       <c r="W10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X10" s="8"/>
+      <c r="X10" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
@@ -1257,42 +1401,58 @@
       <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="J13" s="6"/>
       <c r="K13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="8"/>
+      <c r="L13" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O13" s="5"/>
+      <c r="O13" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R13" s="8"/>
+      <c r="R13" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U13" s="5"/>
+      <c r="U13" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="V13" s="6"/>
       <c r="W13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X13" s="8"/>
+      <c r="X13" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
@@ -1399,46 +1559,66 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
+      <c r="A16" s="13" t="s">
+        <v>72</v>
+      </c>
       <c r="B16" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="D16" s="16"/>
       <c r="E16" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="18"/>
+      <c r="F16" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="G16" s="13"/>
       <c r="H16" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="15"/>
+      <c r="I16" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="J16" s="16"/>
       <c r="K16" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="18"/>
+      <c r="L16" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="M16" s="13"/>
       <c r="N16" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="O16" s="15"/>
+      <c r="O16" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="P16" s="16"/>
       <c r="Q16" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="R16" s="18"/>
+      <c r="R16" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="S16" s="3"/>
       <c r="T16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U16" s="5"/>
-      <c r="V16" s="6"/>
+      <c r="U16" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="V16" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="W16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X16" s="8"/>
+      <c r="X16" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
@@ -1545,34 +1725,46 @@
       <c r="B19" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="D19" s="16"/>
       <c r="E19" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="18"/>
+      <c r="F19" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="G19" s="13"/>
       <c r="H19" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="15"/>
+      <c r="I19" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="J19" s="6" t="s">
         <v>44</v>
       </c>
       <c r="K19" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="18"/>
+      <c r="L19" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="M19" s="13"/>
       <c r="N19" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="O19" s="15"/>
+      <c r="O19" s="15" t="s">
+        <v>85</v>
+      </c>
       <c r="P19" s="16"/>
       <c r="Q19" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="R19" s="18"/>
+      <c r="R19" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="S19" s="3"/>
       <c r="T19" s="4" t="s">
         <v>0</v>
@@ -29329,7 +29521,7 @@
   </sheetPr>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
